--- a/css-html-sql.xlsx
+++ b/css-html-sql.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githup\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B982132B-2FB5-4138-8B06-70459CD81694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>CSS</t>
   </si>
@@ -1731,11 +1732,14 @@
   <si>
     <t>PHP</t>
   </si>
+  <si>
+    <t>as</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2173,28 +2177,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="67.5703125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.81640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="67.54296875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="36.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2239,8 +2243,11 @@
       <c r="K2" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="M2" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2254,7 +2261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2268,7 +2275,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2282,7 +2289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +2303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2310,7 +2317,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2324,7 +2331,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2338,7 +2345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2352,7 +2359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2366,7 +2373,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2380,7 +2387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -2394,7 +2401,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -2408,7 +2415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -2422,7 +2429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="345" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -2436,7 +2443,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -2450,7 +2457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -2464,7 +2471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -2492,7 +2499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -2506,7 +2513,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2517,7 +2524,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
@@ -2533,7 +2540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
@@ -2543,7 +2550,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1"/>
+    <hyperlink ref="J10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/css-html-sql.xlsx
+++ b/css-html-sql.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githup\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Publish\tailieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>CSS</t>
   </si>
@@ -1730,6 +1730,26 @@
   </si>
   <si>
     <t>PHP</t>
+  </si>
+  <si>
+    <t>Biến</t>
+  </si>
+  <si>
+    <t>*Một biến bắt đầu bằng $dấu, theo sau là tên của biến
+*Tên biến phải bắt đầu bằng một chữ cái hoặc ký tự gạch *dưới
+*Tên biến không được bắt đầu bằng số
+*Tên biến chỉ có thể chứa các ký tự chữ-số và dấu gạch dưới (Az, 0-9 và _)
+*Tên biến có phân biệt chữ hoa chữ thường ( $agevà $AGElà hai biến khác nhau)</t>
+  </si>
+  <si>
+    <t>Biến đầu ra</t>
+  </si>
+  <si>
+    <t>*echo thường được sử dụng để xuất dữ liệu ra màn hình
+&lt;?php
+     $txt = "W3Schools.com";
+     echo "I love $txt!";
+?&gt;</t>
   </si>
 </sst>
 </file>
@@ -2176,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,7 +2211,7 @@
     <col min="10" max="10" width="30.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="67.5703125" style="10" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="52.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2226,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2239,8 +2259,14 @@
       <c r="K2" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="M2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2252,6 +2278,12 @@
       </c>
       <c r="K3" s="10" t="s">
         <v>54</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="180" x14ac:dyDescent="0.25">
@@ -2544,8 +2576,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J10" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>